--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_31_9_16.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/1000_model_31_9_16.xlsx
@@ -480,7 +480,7 @@
         <v>3.299645433692669</v>
       </c>
       <c r="D3" t="n">
-        <v>3.727409362792969</v>
+        <v>3.72740912437439</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>2.987822969882686</v>
       </c>
       <c r="D4" t="n">
-        <v>3.451664686203003</v>
+        <v>3.451664447784424</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>2.02961078502475</v>
       </c>
       <c r="D7" t="n">
-        <v>2.425143957138062</v>
+        <v>2.425144195556641</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>1.607071911269599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.838241696357727</v>
+        <v>1.838241577148438</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +620,7 @@
         <v>1.385995091465572</v>
       </c>
       <c r="D13" t="n">
-        <v>1.346045136451721</v>
+        <v>1.346045017242432</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
         <v>1.502738612878482</v>
       </c>
       <c r="D15" t="n">
-        <v>1.404711127281189</v>
+        <v>1.404711008071899</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>1.712503714724715</v>
       </c>
       <c r="D17" t="n">
-        <v>1.658907294273376</v>
+        <v>1.658907175064087</v>
       </c>
     </row>
     <row r="18">
@@ -718,7 +718,7 @@
         <v>2.127748979522753</v>
       </c>
       <c r="D20" t="n">
-        <v>2.248449563980103</v>
+        <v>2.248449802398682</v>
       </c>
     </row>
     <row r="21">
@@ -746,7 +746,7 @@
         <v>2.423708843404018</v>
       </c>
       <c r="D22" t="n">
-        <v>2.558097362518311</v>
+        <v>2.55809760093689</v>
       </c>
     </row>
     <row r="23">
@@ -774,7 +774,7 @@
         <v>2.688621501601222</v>
       </c>
       <c r="D24" t="n">
-        <v>2.711083173751831</v>
+        <v>2.711082935333252</v>
       </c>
     </row>
     <row r="25">
@@ -816,7 +816,7 @@
         <v>2.926025662149036</v>
       </c>
       <c r="D27" t="n">
-        <v>2.730511903762817</v>
+        <v>2.730511665344238</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>2.926938154483262</v>
       </c>
       <c r="D29" t="n">
-        <v>2.676060676574707</v>
+        <v>2.676060914993286</v>
       </c>
     </row>
     <row r="30">
@@ -1012,7 +1012,7 @@
         <v>1.252379902044768</v>
       </c>
       <c r="D41" t="n">
-        <v>1.82109272480011</v>
+        <v>1.82109260559082</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>1.125183145189406</v>
       </c>
       <c r="D42" t="n">
-        <v>1.610674738883972</v>
+        <v>1.610674619674683</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>1.049859734140504</v>
       </c>
       <c r="D43" t="n">
-        <v>1.459762692451477</v>
+        <v>1.459762811660767</v>
       </c>
     </row>
     <row r="44">
@@ -1068,7 +1068,7 @@
         <v>1.031303082240741</v>
       </c>
       <c r="D45" t="n">
-        <v>1.317872762680054</v>
+        <v>1.317872881889343</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>1.075632032697805</v>
       </c>
       <c r="D46" t="n">
-        <v>1.321108460426331</v>
+        <v>1.321108102798462</v>
       </c>
     </row>
     <row r="47">
@@ -1110,7 +1110,7 @@
         <v>1.243575216244345</v>
       </c>
       <c r="D48" t="n">
-        <v>1.476758718490601</v>
+        <v>1.47675895690918</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>1.357811705499883</v>
       </c>
       <c r="D49" t="n">
-        <v>1.62629246711731</v>
+        <v>1.626292586326599</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>1.486735748973397</v>
       </c>
       <c r="D50" t="n">
-        <v>1.811837673187256</v>
+        <v>1.811837792396545</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>1.626475781118616</v>
       </c>
       <c r="D51" t="n">
-        <v>2.014776468276978</v>
+        <v>2.014776706695557</v>
       </c>
     </row>
     <row r="52">
@@ -1180,7 +1180,7 @@
         <v>1.922172557652208</v>
       </c>
       <c r="D53" t="n">
-        <v>2.384497404098511</v>
+        <v>2.38449764251709</v>
       </c>
     </row>
     <row r="54">
@@ -1236,7 +1236,7 @@
         <v>2.440070716153005</v>
       </c>
       <c r="D57" t="n">
-        <v>2.694749593734741</v>
+        <v>2.694749116897583</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>2.520827224014024</v>
       </c>
       <c r="D58" t="n">
-        <v>2.697727203369141</v>
+        <v>2.697726964950562</v>
       </c>
     </row>
     <row r="59">
@@ -1334,7 +1334,7 @@
         <v>2.378418361221304</v>
       </c>
       <c r="D64" t="n">
-        <v>2.511107683181763</v>
+        <v>2.511107444763184</v>
       </c>
     </row>
     <row r="65">
@@ -1362,7 +1362,7 @@
         <v>2.982687222950006</v>
       </c>
       <c r="D66" t="n">
-        <v>3.906067371368408</v>
+        <v>3.906067132949829</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>2.75413347852185</v>
       </c>
       <c r="D67" t="n">
-        <v>3.68942403793335</v>
+        <v>3.689423799514771</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>2.102593559955162</v>
       </c>
       <c r="D69" t="n">
-        <v>3.100524425506592</v>
+        <v>3.100524663925171</v>
       </c>
     </row>
     <row r="70">
@@ -1432,7 +1432,7 @@
         <v>1.48409882985393</v>
       </c>
       <c r="D71" t="n">
-        <v>2.397143602371216</v>
+        <v>2.397143363952637</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1446,7 @@
         <v>1.244630244393571</v>
       </c>
       <c r="D72" t="n">
-        <v>2.072529315948486</v>
+        <v>2.072529554367065</v>
       </c>
     </row>
     <row r="73">
@@ -1474,7 +1474,7 @@
         <v>0.9343631992434174</v>
       </c>
       <c r="D74" t="n">
-        <v>1.584957122802734</v>
+        <v>1.584957003593445</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>0.8590397881945164</v>
       </c>
       <c r="D75" t="n">
-        <v>1.431214451789856</v>
+        <v>1.431214213371277</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>0.8298468271493438</v>
       </c>
       <c r="D76" t="n">
-        <v>1.332754373550415</v>
+        <v>1.332754492759705</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>0.8404831362947531</v>
       </c>
       <c r="D77" t="n">
-        <v>1.285360932350159</v>
+        <v>1.28536069393158</v>
       </c>
     </row>
     <row r="78">
@@ -1558,7 +1558,7 @@
         <v>1.052755270298357</v>
       </c>
       <c r="D80" t="n">
-        <v>1.44137704372406</v>
+        <v>1.441376805305481</v>
       </c>
     </row>
     <row r="81">
@@ -1586,7 +1586,7 @@
         <v>1.295915803027409</v>
       </c>
       <c r="D82" t="n">
-        <v>1.775051474571228</v>
+        <v>1.775051593780518</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>1.435655835172628</v>
       </c>
       <c r="D83" t="n">
-        <v>1.977040767669678</v>
+        <v>1.977040648460388</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>1.582237024351933</v>
       </c>
       <c r="D84" t="n">
-        <v>2.173462390899658</v>
+        <v>2.173462629318237</v>
       </c>
     </row>
     <row r="85">
@@ -1698,7 +1698,7 @@
         <v>2.330007278068036</v>
       </c>
       <c r="D90" t="n">
-        <v>2.650626420974731</v>
+        <v>2.650626182556152</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>2.380513706978217</v>
       </c>
       <c r="D91" t="n">
-        <v>2.636032581329346</v>
+        <v>2.636032819747925</v>
       </c>
     </row>
     <row r="92">
@@ -1768,7 +1768,7 @@
         <v>2.266392604767321</v>
       </c>
       <c r="D95" t="n">
-        <v>2.499297380447388</v>
+        <v>2.499297142028809</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>2.919828224085738</v>
       </c>
       <c r="D98" t="n">
-        <v>3.877272367477417</v>
+        <v>3.877272129058838</v>
       </c>
     </row>
     <row r="99">
@@ -1852,7 +1852,7 @@
         <v>2.039734561090894</v>
       </c>
       <c r="D101" t="n">
-        <v>3.080980539321899</v>
+        <v>3.08098030090332</v>
       </c>
     </row>
     <row r="102">
@@ -1880,7 +1880,7 @@
         <v>1.421239830989663</v>
       </c>
       <c r="D103" t="n">
-        <v>2.378517389297485</v>
+        <v>2.378517627716064</v>
       </c>
     </row>
     <row r="104">
@@ -1922,7 +1922,7 @@
         <v>0.8715042003791504</v>
       </c>
       <c r="D106" t="n">
-        <v>1.558553576469421</v>
+        <v>1.558553457260132</v>
       </c>
     </row>
     <row r="107">
@@ -1936,7 +1936,7 @@
         <v>0.7961807893302488</v>
       </c>
       <c r="D107" t="n">
-        <v>1.402247667312622</v>
+        <v>1.402247548103333</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>0.7669878282850764</v>
       </c>
       <c r="D108" t="n">
-        <v>1.301792502403259</v>
+        <v>1.30179238319397</v>
       </c>
     </row>
     <row r="109">
@@ -1978,7 +1978,7 @@
         <v>0.8219530878875503</v>
       </c>
       <c r="D110" t="n">
-        <v>1.253973245620728</v>
+        <v>1.253973364830017</v>
       </c>
     </row>
     <row r="111">
@@ -2006,7 +2006,7 @@
         <v>0.98989627143409</v>
       </c>
       <c r="D112" t="n">
-        <v>1.406913638114929</v>
+        <v>1.406913280487061</v>
       </c>
     </row>
     <row r="113">
@@ -2020,7 +2020,7 @@
         <v>1.104132760689628</v>
       </c>
       <c r="D113" t="n">
-        <v>1.555394172668457</v>
+        <v>1.555393815040588</v>
       </c>
     </row>
     <row r="114">
@@ -2048,7 +2048,7 @@
         <v>1.37279683630836</v>
       </c>
       <c r="D115" t="n">
-        <v>1.940964579582214</v>
+        <v>1.940964698791504</v>
       </c>
     </row>
     <row r="116">
@@ -2104,7 +2104,7 @@
         <v>1.954541380753018</v>
       </c>
       <c r="D119" t="n">
-        <v>2.528581857681274</v>
+        <v>2.528581619262695</v>
       </c>
     </row>
     <row r="120">
@@ -2188,7 +2188,7 @@
         <v>2.318567200448175</v>
       </c>
       <c r="D125" t="n">
-        <v>2.529892921447754</v>
+        <v>2.529892683029175</v>
       </c>
     </row>
     <row r="126">
@@ -2286,7 +2286,7 @@
         <v>2.413914260904577</v>
       </c>
       <c r="D132" t="n">
-        <v>3.377445220947266</v>
+        <v>3.377445459365845</v>
       </c>
     </row>
     <row r="133">
@@ -2300,7 +2300,7 @@
         <v>2.074196806147871</v>
       </c>
       <c r="D133" t="n">
-        <v>3.064136981964111</v>
+        <v>3.064136743545532</v>
       </c>
     </row>
     <row r="134">
@@ -2370,7 +2370,7 @@
         <v>0.9059664454361276</v>
       </c>
       <c r="D138" t="n">
-        <v>1.536477088928223</v>
+        <v>1.536477208137512</v>
       </c>
     </row>
     <row r="139">
@@ -2412,7 +2412,7 @@
         <v>0.8120863824874631</v>
       </c>
       <c r="D141" t="n">
-        <v>1.225727438926697</v>
+        <v>1.225727558135986</v>
       </c>
     </row>
     <row r="142">
@@ -2426,7 +2426,7 @@
         <v>0.8564153329445274</v>
       </c>
       <c r="D142" t="n">
-        <v>1.226055383682251</v>
+        <v>1.226055264472961</v>
       </c>
     </row>
     <row r="143">
@@ -2454,7 +2454,7 @@
         <v>1.024358516491067</v>
       </c>
       <c r="D144" t="n">
-        <v>1.378503561019897</v>
+        <v>1.378503680229187</v>
       </c>
     </row>
     <row r="145">
@@ -2482,7 +2482,7 @@
         <v>1.267519049220119</v>
       </c>
       <c r="D146" t="n">
-        <v>1.710963368415833</v>
+        <v>1.710963487625122</v>
       </c>
     </row>
     <row r="147">
@@ -2524,7 +2524,7 @@
         <v>1.70295585789893</v>
       </c>
       <c r="D149" t="n">
-        <v>2.275265216827393</v>
+        <v>2.275264978408813</v>
       </c>
     </row>
     <row r="150">
@@ -2538,7 +2538,7 @@
         <v>1.849800134425909</v>
       </c>
       <c r="D150" t="n">
-        <v>2.405949831008911</v>
+        <v>2.40595006942749</v>
       </c>
     </row>
     <row r="151">
@@ -2552,7 +2552,7 @@
         <v>1.989003625809996</v>
       </c>
       <c r="D151" t="n">
-        <v>2.49576210975647</v>
+        <v>2.495761871337891</v>
       </c>
     </row>
     <row r="152">
@@ -2566,7 +2566,7 @@
         <v>2.114712792623112</v>
       </c>
       <c r="D152" t="n">
-        <v>2.548452854156494</v>
+        <v>2.548452615737915</v>
       </c>
     </row>
     <row r="153">
@@ -2580,7 +2580,7 @@
         <v>2.220854016399727</v>
       </c>
       <c r="D153" t="n">
-        <v>2.570934772491455</v>
+        <v>2.570935010910034</v>
       </c>
     </row>
     <row r="154">
@@ -2650,7 +2650,7 @@
         <v>2.306656937206077</v>
       </c>
       <c r="D158" t="n">
-        <v>2.45182204246521</v>
+        <v>2.451822280883789</v>
       </c>
     </row>
     <row r="159">
@@ -2664,7 +2664,7 @@
         <v>2.237995850960032</v>
       </c>
       <c r="D159" t="n">
-        <v>2.409656286239624</v>
+        <v>2.409656047821045</v>
       </c>
     </row>
     <row r="160">
@@ -2678,7 +2678,7 @@
         <v>2.159201661468027</v>
       </c>
       <c r="D160" t="n">
-        <v>2.366199731826782</v>
+        <v>2.366199970245361</v>
       </c>
     </row>
     <row r="161">
@@ -2692,7 +2692,7 @@
         <v>2.08605955951088</v>
       </c>
       <c r="D161" t="n">
-        <v>2.322375774383545</v>
+        <v>2.322375535964966</v>
       </c>
     </row>
     <row r="162">
@@ -2720,7 +2720,7 @@
         <v>2.832095742798542</v>
       </c>
       <c r="D163" t="n">
-        <v>3.624304533004761</v>
+        <v>3.624304294586182</v>
       </c>
     </row>
     <row r="164">
@@ -2762,7 +2762,7 @@
         <v>1.852666171321974</v>
       </c>
       <c r="D166" t="n">
-        <v>2.709456443786621</v>
+        <v>2.7094566822052</v>
       </c>
     </row>
     <row r="167">
@@ -2804,7 +2804,7 @@
         <v>1.139522220375473</v>
       </c>
       <c r="D169" t="n">
-        <v>1.745169520378113</v>
+        <v>1.745169281959534</v>
       </c>
     </row>
     <row r="170">
@@ -2846,7 +2846,7 @@
         <v>0.9078090914260366</v>
       </c>
       <c r="D172" t="n">
-        <v>1.259310364723206</v>
+        <v>1.259310245513916</v>
       </c>
     </row>
     <row r="173">
@@ -2902,7 +2902,7 @@
         <v>1.13071753457505</v>
       </c>
       <c r="D176" t="n">
-        <v>1.361014008522034</v>
+        <v>1.361014127731323</v>
       </c>
     </row>
     <row r="177">
@@ -2930,7 +2930,7 @@
         <v>1.373878067304102</v>
       </c>
       <c r="D178" t="n">
-        <v>1.693798542022705</v>
+        <v>1.693798661231995</v>
       </c>
     </row>
     <row r="179">
@@ -2958,7 +2958,7 @@
         <v>1.660199288628626</v>
       </c>
       <c r="D180" t="n">
-        <v>2.088892698287964</v>
+        <v>2.088892459869385</v>
       </c>
     </row>
     <row r="181">
@@ -2972,7 +2972,7 @@
         <v>1.809314875982913</v>
       </c>
       <c r="D181" t="n">
-        <v>2.256980419158936</v>
+        <v>2.256980180740356</v>
       </c>
     </row>
     <row r="182">
@@ -3028,7 +3028,7 @@
         <v>2.32721303448371</v>
       </c>
       <c r="D185" t="n">
-        <v>2.549588680267334</v>
+        <v>2.549588441848755</v>
       </c>
     </row>
     <row r="186">
@@ -3056,7 +3056,7 @@
         <v>2.458475971254909</v>
       </c>
       <c r="D187" t="n">
-        <v>2.531200408935547</v>
+        <v>2.531200647354126</v>
       </c>
     </row>
     <row r="188">
@@ -3070,7 +3070,7 @@
         <v>2.475695461787268</v>
       </c>
       <c r="D188" t="n">
-        <v>2.502732515335083</v>
+        <v>2.502732753753662</v>
       </c>
     </row>
     <row r="189">
@@ -3084,7 +3084,7 @@
         <v>2.459388463589136</v>
       </c>
       <c r="D189" t="n">
-        <v>2.466942548751831</v>
+        <v>2.466942310333252</v>
       </c>
     </row>
     <row r="190">
@@ -3098,7 +3098,7 @@
         <v>2.413015955290059</v>
       </c>
       <c r="D190" t="n">
-        <v>2.426562070846558</v>
+        <v>2.426562309265137</v>
       </c>
     </row>
     <row r="191">
@@ -3140,7 +3140,7 @@
         <v>2.192418577594863</v>
       </c>
       <c r="D193" t="n">
-        <v>2.294286489486694</v>
+        <v>2.294286251068115</v>
       </c>
     </row>
     <row r="194">
@@ -3154,7 +3154,7 @@
         <v>3.217669401791301</v>
       </c>
       <c r="D194" t="n">
-        <v>3.822159290313721</v>
+        <v>3.8221595287323</v>
       </c>
     </row>
     <row r="195">
@@ -3210,7 +3210,7 @@
         <v>2.009686085886577</v>
       </c>
       <c r="D198" t="n">
-        <v>2.713961362838745</v>
+        <v>2.713961601257324</v>
       </c>
     </row>
     <row r="199">
@@ -3238,7 +3238,7 @@
         <v>1.479612423234867</v>
       </c>
       <c r="D200" t="n">
-        <v>2.030758619308472</v>
+        <v>2.030758380889893</v>
       </c>
     </row>
     <row r="201">
@@ -3252,7 +3252,7 @@
         <v>1.296542134940076</v>
       </c>
       <c r="D201" t="n">
-        <v>1.747274160385132</v>
+        <v>1.747274041175842</v>
       </c>
     </row>
     <row r="202">
@@ -3280,7 +3280,7 @@
         <v>1.094021967035812</v>
       </c>
       <c r="D203" t="n">
-        <v>1.361147403717041</v>
+        <v>1.361147284507751</v>
       </c>
     </row>
     <row r="204">
@@ -3294,7 +3294,7 @@
         <v>1.06482900599064</v>
       </c>
       <c r="D204" t="n">
-        <v>1.256372332572937</v>
+        <v>1.256372213363647</v>
       </c>
     </row>
     <row r="205">
@@ -3350,7 +3350,7 @@
         <v>1.287737449139653</v>
       </c>
       <c r="D208" t="n">
-        <v>1.358235955238342</v>
+        <v>1.358235836029053</v>
       </c>
     </row>
     <row r="209">
@@ -3378,7 +3378,7 @@
         <v>1.530897981868705</v>
       </c>
       <c r="D210" t="n">
-        <v>1.69201922416687</v>
+        <v>1.692019462585449</v>
       </c>
     </row>
     <row r="211">
@@ -3392,7 +3392,7 @@
         <v>1.670638014013924</v>
       </c>
       <c r="D211" t="n">
-        <v>1.892946720123291</v>
+        <v>1.892946600914001</v>
       </c>
     </row>
     <row r="212">
@@ -3420,7 +3420,7 @@
         <v>1.966334790547516</v>
       </c>
       <c r="D213" t="n">
-        <v>2.255069017410278</v>
+        <v>2.255068778991699</v>
       </c>
     </row>
     <row r="214">
@@ -3448,7 +3448,7 @@
         <v>2.252382558458582</v>
       </c>
       <c r="D215" t="n">
-        <v>2.47313404083252</v>
+        <v>2.47313380241394</v>
       </c>
     </row>
     <row r="216">
@@ -3462,7 +3462,7 @@
         <v>2.378091725271698</v>
       </c>
       <c r="D216" t="n">
-        <v>2.524541139602661</v>
+        <v>2.524540901184082</v>
       </c>
     </row>
     <row r="217">
@@ -3490,7 +3490,7 @@
         <v>2.564989456909332</v>
       </c>
       <c r="D218" t="n">
-        <v>2.544175863265991</v>
+        <v>2.54417610168457</v>
       </c>
     </row>
     <row r="219">
@@ -3504,7 +3504,7 @@
         <v>2.615495885819513</v>
       </c>
       <c r="D219" t="n">
-        <v>2.526295900344849</v>
+        <v>2.526296138763428</v>
       </c>
     </row>
     <row r="220">
@@ -3546,7 +3546,7 @@
         <v>2.570035869854662</v>
       </c>
       <c r="D222" t="n">
-        <v>2.41966986656189</v>
+        <v>2.419669628143311</v>
       </c>
     </row>
     <row r="223">
@@ -3560,7 +3560,7 @@
         <v>2.501374783608617</v>
       </c>
       <c r="D223" t="n">
-        <v>2.375799417495728</v>
+        <v>2.375799179077148</v>
       </c>
     </row>
     <row r="224">
@@ -3574,7 +3574,7 @@
         <v>2.422580594116612</v>
       </c>
       <c r="D224" t="n">
-        <v>2.330496311187744</v>
+        <v>2.330496072769165</v>
       </c>
     </row>
     <row r="225">
@@ -3588,7 +3588,7 @@
         <v>2.349438492159465</v>
       </c>
       <c r="D225" t="n">
-        <v>2.284672498703003</v>
+        <v>2.284672737121582</v>
       </c>
     </row>
     <row r="226">
@@ -3602,7 +3602,7 @@
         <v>3.406870807983367</v>
       </c>
       <c r="D226" t="n">
-        <v>3.827114343643188</v>
+        <v>3.827114105224609</v>
       </c>
     </row>
     <row r="227">
@@ -3700,7 +3700,7 @@
         <v>1.485743541132141</v>
       </c>
       <c r="D233" t="n">
-        <v>1.764354348182678</v>
+        <v>1.764354228973389</v>
       </c>
     </row>
     <row r="234">
@@ -3714,7 +3714,7 @@
         <v>1.358546784276779</v>
       </c>
       <c r="D234" t="n">
-        <v>1.538707613945007</v>
+        <v>1.538707733154297</v>
       </c>
     </row>
     <row r="235">
@@ -3728,7 +3728,7 @@
         <v>1.283223373227877</v>
       </c>
       <c r="D235" t="n">
-        <v>1.374820470809937</v>
+        <v>1.374820351600647</v>
       </c>
     </row>
     <row r="236">
@@ -3742,7 +3742,7 @@
         <v>1.254030412182705</v>
       </c>
       <c r="D236" t="n">
-        <v>1.269128561019897</v>
+        <v>1.269128441810608</v>
       </c>
     </row>
     <row r="237">
@@ -3756,7 +3756,7 @@
         <v>1.264666721328114</v>
       </c>
       <c r="D237" t="n">
-        <v>1.217419862747192</v>
+        <v>1.217419981956482</v>
       </c>
     </row>
     <row r="238">
@@ -3770,7 +3770,7 @@
         <v>1.308995671785179</v>
       </c>
       <c r="D238" t="n">
-        <v>1.217520236968994</v>
+        <v>1.217520475387573</v>
       </c>
     </row>
     <row r="239">
@@ -3784,7 +3784,7 @@
         <v>1.381410242741024</v>
       </c>
       <c r="D239" t="n">
-        <v>1.269287586212158</v>
+        <v>1.269287705421448</v>
       </c>
     </row>
     <row r="240">
@@ -3812,7 +3812,7 @@
         <v>1.591175344587257</v>
       </c>
       <c r="D241" t="n">
-        <v>1.522384762763977</v>
+        <v>1.522385001182556</v>
       </c>
     </row>
     <row r="242">
@@ -3826,7 +3826,7 @@
         <v>1.72009938806077</v>
       </c>
       <c r="D242" t="n">
-        <v>1.707799077033997</v>
+        <v>1.707799315452576</v>
       </c>
     </row>
     <row r="243">
@@ -3840,7 +3840,7 @@
         <v>1.859839420205989</v>
       </c>
       <c r="D243" t="n">
-        <v>1.909277677536011</v>
+        <v>1.909277558326721</v>
       </c>
     </row>
     <row r="244">
@@ -3854,7 +3854,7 @@
         <v>2.006420609385295</v>
       </c>
       <c r="D244" t="n">
-        <v>2.103876113891602</v>
+        <v>2.103875875473022</v>
       </c>
     </row>
     <row r="245">
@@ -3868,7 +3868,7 @@
         <v>2.155536196739581</v>
       </c>
       <c r="D245" t="n">
-        <v>2.271724700927734</v>
+        <v>2.271724462509155</v>
       </c>
     </row>
     <row r="246">
@@ -3896,7 +3896,7 @@
         <v>2.441583964650647</v>
       </c>
       <c r="D247" t="n">
-        <v>2.489510774612427</v>
+        <v>2.489511013031006</v>
       </c>
     </row>
     <row r="248">
@@ -3980,7 +3980,7 @@
         <v>2.805609784345804</v>
       </c>
       <c r="D253" t="n">
-        <v>2.475214719772339</v>
+        <v>2.47521448135376</v>
       </c>
     </row>
     <row r="254">
@@ -4008,7 +4008,7 @@
         <v>2.690576189800682</v>
       </c>
       <c r="D255" t="n">
-        <v>2.388899803161621</v>
+        <v>2.388899564743042</v>
       </c>
     </row>
     <row r="256">
@@ -4036,7 +4036,7 @@
         <v>2.538639898351531</v>
       </c>
       <c r="D257" t="n">
-        <v>2.295935869216919</v>
+        <v>2.295936107635498</v>
       </c>
     </row>
     <row r="258">
@@ -4050,7 +4050,7 @@
         <v>3.611077970028599</v>
       </c>
       <c r="D258" t="n">
-        <v>3.846557378768921</v>
+        <v>3.846556901931763</v>
       </c>
     </row>
     <row r="259">
@@ -4106,7 +4106,7 @@
         <v>2.403094654123874</v>
       </c>
       <c r="D262" t="n">
-        <v>2.766243696212769</v>
+        <v>2.766243457794189</v>
       </c>
     </row>
     <row r="263">
@@ -4120,7 +4120,7 @@
         <v>2.112489576932524</v>
       </c>
       <c r="D263" t="n">
-        <v>2.415537357330322</v>
+        <v>2.415537118911743</v>
       </c>
     </row>
     <row r="264">
@@ -4134,7 +4134,7 @@
         <v>1.873020991472165</v>
       </c>
       <c r="D264" t="n">
-        <v>2.083703756332397</v>
+        <v>2.083703994750977</v>
       </c>
     </row>
     <row r="265">
@@ -4176,7 +4176,7 @@
         <v>1.48743053527311</v>
       </c>
       <c r="D267" t="n">
-        <v>1.404486060142517</v>
+        <v>1.404485940933228</v>
       </c>
     </row>
     <row r="268">
@@ -4190,7 +4190,7 @@
         <v>1.458237574227937</v>
       </c>
       <c r="D268" t="n">
-        <v>1.298088669776917</v>
+        <v>1.298088550567627</v>
       </c>
     </row>
     <row r="269">
@@ -4218,7 +4218,7 @@
         <v>1.513202833830411</v>
       </c>
       <c r="D270" t="n">
-        <v>1.246891379356384</v>
+        <v>1.246891617774963</v>
       </c>
     </row>
     <row r="271">
@@ -4232,7 +4232,7 @@
         <v>1.585617404786256</v>
       </c>
       <c r="D271" t="n">
-        <v>1.299538850784302</v>
+        <v>1.299538731575012</v>
       </c>
     </row>
     <row r="272">
@@ -4246,7 +4246,7 @@
         <v>1.681146017376951</v>
       </c>
       <c r="D272" t="n">
-        <v>1.403721451759338</v>
+        <v>1.403721332550049</v>
       </c>
     </row>
     <row r="273">
@@ -4274,7 +4274,7 @@
         <v>1.924306550106002</v>
       </c>
       <c r="D274" t="n">
-        <v>1.741466164588928</v>
+        <v>1.741466045379639</v>
       </c>
     </row>
     <row r="275">
@@ -4302,7 +4302,7 @@
         <v>2.210627771430527</v>
       </c>
       <c r="D276" t="n">
-        <v>2.13901162147522</v>
+        <v>2.139011383056641</v>
       </c>
     </row>
     <row r="277">
@@ -4330,7 +4330,7 @@
         <v>2.506587635311792</v>
       </c>
       <c r="D278" t="n">
-        <v>2.436853647232056</v>
+        <v>2.436853885650635</v>
       </c>
     </row>
     <row r="279">
@@ -4344,7 +4344,7 @@
         <v>2.645791126695879</v>
       </c>
       <c r="D279" t="n">
-        <v>2.525345325469971</v>
+        <v>2.52534556388855</v>
       </c>
     </row>
     <row r="280">
@@ -4400,7 +4400,7 @@
         <v>3.00890445405681</v>
       </c>
       <c r="D283" t="n">
-        <v>2.577449083328247</v>
+        <v>2.577448844909668</v>
       </c>
     </row>
     <row r="284">
@@ -4414,7 +4414,7 @@
         <v>3.026123944589168</v>
       </c>
       <c r="D284" t="n">
-        <v>2.547770261764526</v>
+        <v>2.547770023345947</v>
       </c>
     </row>
     <row r="285">
@@ -4526,7 +4526,7 @@
         <v>3.272844078700802</v>
       </c>
       <c r="D292" t="n">
-        <v>3.444496631622314</v>
+        <v>3.444496154785156</v>
       </c>
     </row>
     <row r="293">
@@ -4582,7 +4582,7 @@
         <v>2.075163308382506</v>
       </c>
       <c r="D296" t="n">
-        <v>2.132332801818848</v>
+        <v>2.132333040237427</v>
       </c>
     </row>
     <row r="297">
@@ -4596,7 +4596,7 @@
         <v>1.892093020087714</v>
       </c>
       <c r="D297" t="n">
-        <v>1.844343543052673</v>
+        <v>1.844343423843384</v>
       </c>
     </row>
     <row r="298">
@@ -4638,7 +4638,7 @@
         <v>1.660379891138278</v>
       </c>
       <c r="D300" t="n">
-        <v>1.342123866081238</v>
+        <v>1.342123985290527</v>
       </c>
     </row>
     <row r="301">
@@ -4694,7 +4694,7 @@
         <v>1.883288334287292</v>
       </c>
       <c r="D304" t="n">
-        <v>1.451015472412109</v>
+        <v>1.451015591621399</v>
       </c>
     </row>
     <row r="305">
@@ -4708,7 +4708,7 @@
         <v>1.99752482354283</v>
       </c>
       <c r="D305" t="n">
-        <v>1.60369884967804</v>
+        <v>1.603698968887329</v>
       </c>
     </row>
     <row r="306">
@@ -4722,7 +4722,7 @@
         <v>2.126448867016344</v>
       </c>
       <c r="D306" t="n">
-        <v>1.79157018661499</v>
+        <v>1.791570067405701</v>
       </c>
     </row>
     <row r="307">
@@ -4778,7 +4778,7 @@
         <v>2.708729952222133</v>
       </c>
       <c r="D310" t="n">
-        <v>2.490089416503906</v>
+        <v>2.490089178085327</v>
       </c>
     </row>
     <row r="311">
@@ -4806,7 +4806,7 @@
         <v>2.973642610419337</v>
       </c>
       <c r="D312" t="n">
-        <v>2.630574703216553</v>
+        <v>2.630574464797974</v>
       </c>
     </row>
     <row r="313">
@@ -4820,7 +4820,7 @@
         <v>3.079783834195951</v>
       </c>
       <c r="D313" t="n">
-        <v>2.651859045028687</v>
+        <v>2.651858806610107</v>
       </c>
     </row>
     <row r="314">
@@ -4876,7 +4876,7 @@
         <v>3.211959263301377</v>
       </c>
       <c r="D317" t="n">
-        <v>2.564782381057739</v>
+        <v>2.56478214263916</v>
       </c>
     </row>
     <row r="318">
@@ -4890,7 +4890,7 @@
         <v>3.165586755002301</v>
       </c>
       <c r="D318" t="n">
-        <v>2.522233486175537</v>
+        <v>2.522233724594116</v>
       </c>
     </row>
     <row r="319">
@@ -4918,7 +4918,7 @@
         <v>3.018131479264251</v>
       </c>
       <c r="D320" t="n">
-        <v>2.42880392074585</v>
+        <v>2.428803682327271</v>
       </c>
     </row>
     <row r="321">
@@ -4946,7 +4946,7 @@
         <v>3.995607219205135</v>
       </c>
       <c r="D322" t="n">
-        <v>3.924750089645386</v>
+        <v>3.924750328063965</v>
       </c>
     </row>
     <row r="323">
@@ -4960,7 +4960,7 @@
         <v>3.767053474776978</v>
       </c>
       <c r="D323" t="n">
-        <v>3.736593008041382</v>
+        <v>3.736592769622803</v>
       </c>
     </row>
     <row r="324">
@@ -5044,7 +5044,7 @@
         <v>2.074479952353908</v>
       </c>
       <c r="D329" t="n">
-        <v>1.903877377510071</v>
+        <v>1.903877258300781</v>
       </c>
     </row>
     <row r="330">
@@ -5058,7 +5058,7 @@
         <v>1.947283195498546</v>
       </c>
       <c r="D330" t="n">
-        <v>1.673536777496338</v>
+        <v>1.673536896705627</v>
       </c>
     </row>
     <row r="331">
@@ -5072,7 +5072,7 @@
         <v>1.871959784449645</v>
       </c>
       <c r="D331" t="n">
-        <v>1.506036400794983</v>
+        <v>1.506036520004272</v>
       </c>
     </row>
     <row r="332">
@@ -5086,7 +5086,7 @@
         <v>1.842766823404473</v>
       </c>
       <c r="D332" t="n">
-        <v>1.398623704910278</v>
+        <v>1.398623824119568</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>1.853403132549882</v>
       </c>
       <c r="D333" t="n">
-        <v>1.347175121307373</v>
+        <v>1.347175002098083</v>
       </c>
     </row>
     <row r="334">
@@ -5114,7 +5114,7 @@
         <v>1.897732083006946</v>
       </c>
       <c r="D334" t="n">
-        <v>1.349234104156494</v>
+        <v>1.349234223365784</v>
       </c>
     </row>
     <row r="335">
@@ -5156,7 +5156,7 @@
         <v>2.179911755809024</v>
       </c>
       <c r="D337" t="n">
-        <v>1.665611982345581</v>
+        <v>1.665612101554871</v>
       </c>
     </row>
     <row r="338">
@@ -5170,7 +5170,7 @@
         <v>2.308835799282538</v>
       </c>
       <c r="D338" t="n">
-        <v>1.855026960372925</v>
+        <v>1.855027079582214</v>
       </c>
     </row>
     <row r="339">
@@ -5198,7 +5198,7 @@
         <v>2.595157020607062</v>
       </c>
       <c r="D340" t="n">
-        <v>2.256983757019043</v>
+        <v>2.256983995437622</v>
       </c>
     </row>
     <row r="341">
@@ -5338,7 +5338,7 @@
         <v>3.347973687268495</v>
       </c>
       <c r="D350" t="n">
-        <v>2.591486930847168</v>
+        <v>2.591487407684326</v>
       </c>
     </row>
     <row r="351">
@@ -5366,7 +5366,7 @@
         <v>3.200518411530445</v>
       </c>
       <c r="D352" t="n">
-        <v>2.496906280517578</v>
+        <v>2.496906518936157</v>
       </c>
     </row>
     <row r="353">
@@ -5394,7 +5394,7 @@
         <v>4.139868088781944</v>
       </c>
       <c r="D354" t="n">
-        <v>3.977949380874634</v>
+        <v>3.977949142456055</v>
       </c>
     </row>
     <row r="355">
@@ -5408,7 +5408,7 @@
         <v>3.911314344353789</v>
       </c>
       <c r="D355" t="n">
-        <v>3.793415546417236</v>
+        <v>3.793415784835815</v>
       </c>
     </row>
     <row r="356">
@@ -5464,7 +5464,7 @@
         <v>2.641279695685869</v>
       </c>
       <c r="D359" t="n">
-        <v>2.594647645950317</v>
+        <v>2.594647884368896</v>
       </c>
     </row>
     <row r="360">
@@ -5492,7 +5492,7 @@
         <v>2.218740821930719</v>
       </c>
       <c r="D361" t="n">
-        <v>1.971811175346375</v>
+        <v>1.971810936927795</v>
       </c>
     </row>
     <row r="362">
@@ -5506,7 +5506,7 @@
         <v>2.091544065075357</v>
       </c>
       <c r="D362" t="n">
-        <v>1.740011692047119</v>
+        <v>1.74001157283783</v>
       </c>
     </row>
     <row r="363">
@@ -5520,7 +5520,7 @@
         <v>2.016220654026455</v>
       </c>
       <c r="D363" t="n">
-        <v>1.571392059326172</v>
+        <v>1.571391940116882</v>
       </c>
     </row>
     <row r="364">
@@ -5562,7 +5562,7 @@
         <v>2.041992952583756</v>
       </c>
       <c r="D366" t="n">
-        <v>1.415155053138733</v>
+        <v>1.415155410766602</v>
       </c>
     </row>
     <row r="367">
@@ -5576,7 +5576,7 @@
         <v>2.114407523539601</v>
       </c>
       <c r="D367" t="n">
-        <v>1.471438407897949</v>
+        <v>1.47143828868866</v>
       </c>
     </row>
     <row r="368">
@@ -5604,7 +5604,7 @@
         <v>2.324172625385834</v>
       </c>
       <c r="D369" t="n">
-        <v>1.736081004142761</v>
+        <v>1.736080884933472</v>
       </c>
     </row>
     <row r="370">
@@ -5632,7 +5632,7 @@
         <v>2.592836701004567</v>
       </c>
       <c r="D371" t="n">
-        <v>2.133339881896973</v>
+        <v>2.133339643478394</v>
       </c>
     </row>
     <row r="372">
@@ -5646,7 +5646,7 @@
         <v>2.739417890183872</v>
       </c>
       <c r="D372" t="n">
-        <v>2.331624507904053</v>
+        <v>2.331624746322632</v>
       </c>
     </row>
     <row r="373">
@@ -5702,7 +5702,7 @@
         <v>3.300290412262341</v>
       </c>
       <c r="D376" t="n">
-        <v>2.776625633239746</v>
+        <v>2.776625394821167</v>
       </c>
     </row>
     <row r="377">
@@ -5828,7 +5828,7 @@
         <v>3.271637179150109</v>
       </c>
       <c r="D385" t="n">
-        <v>2.52397346496582</v>
+        <v>2.523973226547241</v>
       </c>
     </row>
     <row r="386">
@@ -5842,7 +5842,7 @@
         <v>4.227717006255242</v>
       </c>
       <c r="D386" t="n">
-        <v>4.034294128417969</v>
+        <v>4.034293651580811</v>
       </c>
     </row>
     <row r="387">
@@ -5856,7 +5856,7 @@
         <v>3.999163261827086</v>
       </c>
       <c r="D387" t="n">
-        <v>3.853297233581543</v>
+        <v>3.853297472000122</v>
       </c>
     </row>
     <row r="388">
@@ -5870,7 +5870,7 @@
         <v>3.687340798017104</v>
       </c>
       <c r="D388" t="n">
-        <v>3.621877193450928</v>
+        <v>3.62187671661377</v>
       </c>
     </row>
     <row r="389">
@@ -5884,7 +5884,7 @@
         <v>3.347623343260398</v>
       </c>
       <c r="D389" t="n">
-        <v>3.338082075119019</v>
+        <v>3.338082313537598</v>
       </c>
     </row>
     <row r="390">
@@ -5912,7 +5912,7 @@
         <v>2.729128613159167</v>
       </c>
       <c r="D391" t="n">
-        <v>2.666788101196289</v>
+        <v>2.66678786277771</v>
       </c>
     </row>
     <row r="392">
@@ -5926,7 +5926,7 @@
         <v>2.489660027698808</v>
       </c>
       <c r="D392" t="n">
-        <v>2.334197044372559</v>
+        <v>2.334197282791138</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>2.306589739404017</v>
       </c>
       <c r="D393" t="n">
-        <v>2.042580366134644</v>
+        <v>2.042580127716064</v>
       </c>
     </row>
     <row r="394">
@@ -5982,7 +5982,7 @@
         <v>2.07487661045458</v>
       </c>
       <c r="D396" t="n">
-        <v>1.530866384506226</v>
+        <v>1.530866622924805</v>
       </c>
     </row>
     <row r="397">
@@ -5996,7 +5996,7 @@
         <v>2.08551291959999</v>
       </c>
       <c r="D397" t="n">
-        <v>1.47973108291626</v>
+        <v>1.479730844497681</v>
       </c>
     </row>
     <row r="398">
@@ -6038,7 +6038,7 @@
         <v>2.297785053603594</v>
       </c>
       <c r="D400" t="n">
-        <v>1.650925636291504</v>
+        <v>1.650925517082214</v>
       </c>
     </row>
     <row r="401">
@@ -6080,7 +6080,7 @@
         <v>2.680685618477865</v>
       </c>
       <c r="D403" t="n">
-        <v>2.20864725112915</v>
+        <v>2.208647012710571</v>
       </c>
     </row>
     <row r="404">
@@ -6108,7 +6108,7 @@
         <v>2.976382395011456</v>
       </c>
       <c r="D405" t="n">
-        <v>2.579473733901978</v>
+        <v>2.579473972320557</v>
       </c>
     </row>
     <row r="406">
@@ -6150,7 +6150,7 @@
         <v>3.388139329735639</v>
       </c>
       <c r="D408" t="n">
-        <v>2.855700969696045</v>
+        <v>2.855701208114624</v>
       </c>
     </row>
     <row r="409">
@@ -6248,7 +6248,7 @@
         <v>3.511422388072559</v>
       </c>
       <c r="D415" t="n">
-        <v>2.702773809432983</v>
+        <v>2.702773571014404</v>
       </c>
     </row>
     <row r="416">
@@ -6276,7 +6276,7 @@
         <v>3.359486096623407</v>
       </c>
       <c r="D417" t="n">
-        <v>2.601521968841553</v>
+        <v>2.601521730422974</v>
       </c>
     </row>
     <row r="418">
@@ -6332,7 +6332,7 @@
         <v>3.362541805222826</v>
       </c>
       <c r="D421" t="n">
-        <v>3.400999546051025</v>
+        <v>3.400999307632446</v>
       </c>
     </row>
     <row r="422">
@@ -6374,7 +6374,7 @@
         <v>2.504578489661236</v>
       </c>
       <c r="D424" t="n">
-        <v>2.401103019714355</v>
+        <v>2.401103258132935</v>
       </c>
     </row>
     <row r="425">
@@ -6402,7 +6402,7 @@
         <v>2.194311444511083</v>
       </c>
       <c r="D426" t="n">
-        <v>1.872923731803894</v>
+        <v>1.872923851013184</v>
       </c>
     </row>
     <row r="427">
@@ -6430,7 +6430,7 @@
         <v>2.089795072417008</v>
       </c>
       <c r="D428" t="n">
-        <v>1.592172026634216</v>
+        <v>1.592172145843506</v>
       </c>
     </row>
     <row r="429">
@@ -6444,7 +6444,7 @@
         <v>2.100431381562418</v>
       </c>
       <c r="D429" t="n">
-        <v>1.540845990180969</v>
+        <v>1.540846109390259</v>
       </c>
     </row>
     <row r="430">
@@ -6458,7 +6458,7 @@
         <v>2.144760332019482</v>
       </c>
       <c r="D430" t="n">
-        <v>1.544867753982544</v>
+        <v>1.544867873191833</v>
       </c>
     </row>
     <row r="431">
@@ -6472,7 +6472,7 @@
         <v>2.217174902975327</v>
       </c>
       <c r="D431" t="n">
-        <v>1.603238940238953</v>
+        <v>1.603238821029663</v>
       </c>
     </row>
     <row r="432">
@@ -6486,7 +6486,7 @@
         <v>2.312703515566022</v>
       </c>
       <c r="D432" t="n">
-        <v>1.714582920074463</v>
+        <v>1.714582800865173</v>
       </c>
     </row>
     <row r="433">
@@ -6500,7 +6500,7 @@
         <v>2.42694000482156</v>
       </c>
       <c r="D433" t="n">
-        <v>1.873504877090454</v>
+        <v>1.873504757881165</v>
       </c>
     </row>
     <row r="434">
@@ -6570,7 +6570,7 @@
         <v>3.138145133500863</v>
       </c>
       <c r="D438" t="n">
-        <v>2.780879735946655</v>
+        <v>2.780879497528076</v>
       </c>
     </row>
     <row r="439">
@@ -6626,7 +6626,7 @@
         <v>3.589955523335702</v>
       </c>
       <c r="D442" t="n">
-        <v>2.948007583618164</v>
+        <v>2.948007345199585</v>
       </c>
     </row>
     <row r="443">
@@ -6654,7 +6654,7 @@
         <v>3.65768144277824</v>
       </c>
       <c r="D444" t="n">
-        <v>2.90100622177124</v>
+        <v>2.901006460189819</v>
       </c>
     </row>
     <row r="445">
@@ -6696,7 +6696,7 @@
         <v>3.526340850034986</v>
       </c>
       <c r="D447" t="n">
-        <v>2.771209955215454</v>
+        <v>2.771210193634033</v>
       </c>
     </row>
     <row r="448">
@@ -6710,7 +6710,7 @@
         <v>3.447546660542981</v>
       </c>
       <c r="D448" t="n">
-        <v>2.720503568649292</v>
+        <v>2.720503807067871</v>
       </c>
     </row>
     <row r="449">
@@ -6724,7 +6724,7 @@
         <v>3.374404558585835</v>
       </c>
       <c r="D449" t="n">
-        <v>2.66788125038147</v>
+        <v>2.667881011962891</v>
       </c>
     </row>
     <row r="450">
@@ -6752,7 +6752,7 @@
         <v>3.943877332941301</v>
       </c>
       <c r="D451" t="n">
-        <v>3.948405981063843</v>
+        <v>3.948405742645264</v>
       </c>
     </row>
     <row r="452">
@@ -6766,7 +6766,7 @@
         <v>3.632054869131318</v>
       </c>
       <c r="D452" t="n">
-        <v>3.724347114562988</v>
+        <v>3.724347352981567</v>
       </c>
     </row>
     <row r="453">
@@ -6794,7 +6794,7 @@
         <v>2.964447761464732</v>
       </c>
       <c r="D454" t="n">
-        <v>3.127047061920166</v>
+        <v>3.127047300338745</v>
       </c>
     </row>
     <row r="455">
@@ -6850,7 +6850,7 @@
         <v>2.124107053662869</v>
       </c>
       <c r="D458" t="n">
-        <v>1.918979287147522</v>
+        <v>1.918979406356812</v>
       </c>
     </row>
     <row r="459">
@@ -6878,7 +6878,7 @@
         <v>2.019590681568795</v>
       </c>
       <c r="D460" t="n">
-        <v>1.63491427898407</v>
+        <v>1.634914398193359</v>
       </c>
     </row>
     <row r="461">
@@ -6906,7 +6906,7 @@
         <v>2.074555941171269</v>
       </c>
       <c r="D462" t="n">
-        <v>1.586871027946472</v>
+        <v>1.586871147155762</v>
       </c>
     </row>
     <row r="463">
@@ -6920,7 +6920,7 @@
         <v>2.146970512127114</v>
       </c>
       <c r="D463" t="n">
-        <v>1.645650744438171</v>
+        <v>1.645650863647461</v>
       </c>
     </row>
     <row r="464">
@@ -6948,7 +6948,7 @@
         <v>2.356735613973346</v>
       </c>
       <c r="D465" t="n">
-        <v>1.917454481124878</v>
+        <v>1.917454600334167</v>
       </c>
     </row>
     <row r="466">
@@ -6962,7 +6962,7 @@
         <v>2.485659657446861</v>
       </c>
       <c r="D466" t="n">
-        <v>2.112046003341675</v>
+        <v>2.112046241760254</v>
       </c>
     </row>
     <row r="467">
@@ -6990,7 +6990,7 @@
         <v>2.771980878771385</v>
       </c>
       <c r="D468" t="n">
-        <v>2.521720409393311</v>
+        <v>2.52172064781189</v>
       </c>
     </row>
     <row r="469">
@@ -7046,7 +7046,7 @@
         <v>3.332853400849853</v>
       </c>
       <c r="D472" t="n">
-        <v>2.970792531967163</v>
+        <v>2.970792293548584</v>
       </c>
     </row>
     <row r="473">
@@ -7060,7 +7060,7 @@
         <v>3.438994624626469</v>
       </c>
       <c r="D473" t="n">
-        <v>2.993470668792725</v>
+        <v>2.993470430374146</v>
       </c>
     </row>
     <row r="474">
@@ -7074,7 +7074,7 @@
         <v>3.519751132487488</v>
       </c>
       <c r="D474" t="n">
-        <v>2.992731094360352</v>
+        <v>2.992731332778931</v>
       </c>
     </row>
     <row r="475">
@@ -7102,7 +7102,7 @@
         <v>3.587477051930026</v>
       </c>
       <c r="D476" t="n">
-        <v>2.944730281829834</v>
+        <v>2.944730520248413</v>
       </c>
     </row>
     <row r="477">
@@ -7270,7 +7270,7 @@
         <v>2.274356066632625</v>
       </c>
       <c r="D488" t="n">
-        <v>2.467162847518921</v>
+        <v>2.4671630859375</v>
       </c>
     </row>
     <row r="489">
@@ -7284,7 +7284,7 @@
         <v>2.091285778337833</v>
       </c>
       <c r="D489" t="n">
-        <v>2.170130729675293</v>
+        <v>2.170130968093872</v>
       </c>
     </row>
     <row r="490">
@@ -7298,7 +7298,7 @@
         <v>1.964089021482471</v>
       </c>
       <c r="D490" t="n">
-        <v>1.930028438568115</v>
+        <v>1.930028557777405</v>
       </c>
     </row>
     <row r="491">
@@ -7312,7 +7312,7 @@
         <v>1.888765610433569</v>
       </c>
       <c r="D491" t="n">
-        <v>1.754108667373657</v>
+        <v>1.754108786582947</v>
       </c>
     </row>
     <row r="492">
@@ -7326,7 +7326,7 @@
         <v>1.859572649388397</v>
       </c>
       <c r="D492" t="n">
-        <v>1.641334176063538</v>
+        <v>1.641334056854248</v>
       </c>
     </row>
     <row r="493">
@@ -7382,7 +7382,7 @@
         <v>2.082481092537411</v>
       </c>
       <c r="D496" t="n">
-        <v>1.761639952659607</v>
+        <v>1.761640071868896</v>
       </c>
     </row>
     <row r="497">
@@ -7396,7 +7396,7 @@
         <v>2.196717581792949</v>
       </c>
       <c r="D497" t="n">
-        <v>1.921477556228638</v>
+        <v>1.921477794647217</v>
       </c>
     </row>
     <row r="498">
@@ -7424,7 +7424,7 @@
         <v>2.465381657411681</v>
       </c>
       <c r="D499" t="n">
-        <v>2.325093269348145</v>
+        <v>2.325093507766724</v>
       </c>
     </row>
     <row r="500">
@@ -7494,7 +7494,7 @@
         <v>3.172835368669456</v>
       </c>
       <c r="D504" t="n">
-        <v>2.971075296401978</v>
+        <v>2.971075534820557</v>
       </c>
     </row>
     <row r="505">
@@ -7508,7 +7508,7 @@
         <v>3.27897659244607</v>
       </c>
       <c r="D505" t="n">
-        <v>2.992828369140625</v>
+        <v>2.992828607559204</v>
       </c>
     </row>
     <row r="506">
@@ -7522,7 +7522,7 @@
         <v>3.35973310030709</v>
       </c>
       <c r="D506" t="n">
-        <v>2.991105556488037</v>
+        <v>2.991105794906616</v>
       </c>
     </row>
     <row r="507">
@@ -7676,7 +7676,7 @@
         <v>2.888538840624153</v>
       </c>
       <c r="D517" t="n">
-        <v>3.421337127685547</v>
+        <v>3.421336889266968</v>
       </c>
     </row>
     <row r="518">
@@ -7760,7 +7760,7 @@
         <v>1.644985068863508</v>
       </c>
       <c r="D523" t="n">
-        <v>1.70460045337677</v>
+        <v>1.704600214958191</v>
       </c>
     </row>
     <row r="524">
@@ -7774,7 +7774,7 @@
         <v>1.615792107818336</v>
       </c>
       <c r="D524" t="n">
-        <v>1.588989734649658</v>
+        <v>1.588989973068237</v>
       </c>
     </row>
     <row r="525">
@@ -7844,7 +7844,7 @@
         <v>1.952937040222887</v>
       </c>
       <c r="D529" t="n">
-        <v>1.862475156784058</v>
+        <v>1.862475275993347</v>
       </c>
     </row>
     <row r="530">
@@ -7900,7 +7900,7 @@
         <v>2.517297892375212</v>
       </c>
       <c r="D533" t="n">
-        <v>2.632981300354004</v>
+        <v>2.632981061935425</v>
       </c>
     </row>
     <row r="534">
@@ -7942,7 +7942,7 @@
         <v>2.929054827099395</v>
       </c>
       <c r="D536" t="n">
-        <v>2.902479410171509</v>
+        <v>2.90247917175293</v>
       </c>
     </row>
     <row r="537">
@@ -7956,7 +7956,7 @@
         <v>3.035196050876009</v>
       </c>
       <c r="D537" t="n">
-        <v>2.922556638717651</v>
+        <v>2.92255687713623</v>
       </c>
     </row>
     <row r="538">
@@ -8012,7 +8012,7 @@
         <v>3.167371479981435</v>
       </c>
       <c r="D541" t="n">
-        <v>2.823415994644165</v>
+        <v>2.823416233062744</v>
       </c>
     </row>
     <row r="542">
@@ -8026,7 +8026,7 @@
         <v>3.120998971682359</v>
       </c>
       <c r="D542" t="n">
-        <v>2.775222778320312</v>
+        <v>2.775222539901733</v>
       </c>
     </row>
     <row r="543">
@@ -8068,7 +8068,7 @@
         <v>2.900401593987162</v>
       </c>
       <c r="D545" t="n">
-        <v>2.608257055282593</v>
+        <v>2.608256816864014</v>
       </c>
     </row>
     <row r="546">
@@ -8110,7 +8110,7 @@
         <v>2.919942780411361</v>
       </c>
       <c r="D548" t="n">
-        <v>3.573105573654175</v>
+        <v>3.573105335235596</v>
       </c>
     </row>
     <row r="549">
@@ -8166,7 +8166,7 @@
         <v>1.722262010093065</v>
       </c>
       <c r="D552" t="n">
-        <v>2.310015201568604</v>
+        <v>2.310015439987183</v>
       </c>
     </row>
     <row r="553">
@@ -8180,7 +8180,7 @@
         <v>1.539191721798274</v>
       </c>
       <c r="D553" t="n">
-        <v>2.006811141967773</v>
+        <v>2.006811380386353</v>
       </c>
     </row>
     <row r="554">
@@ -8208,7 +8208,7 @@
         <v>1.33667155389401</v>
       </c>
       <c r="D555" t="n">
-        <v>1.576054930686951</v>
+        <v>1.57605504989624</v>
       </c>
     </row>
     <row r="556">
@@ -8236,7 +8236,7 @@
         <v>1.318114901994247</v>
       </c>
       <c r="D557" t="n">
-        <v>1.398543238639832</v>
+        <v>1.398543119430542</v>
       </c>
     </row>
     <row r="558">
@@ -8390,7 +8390,7 @@
         <v>2.620741312129896</v>
       </c>
       <c r="D568" t="n">
-        <v>2.746791839599609</v>
+        <v>2.74679160118103</v>
       </c>
     </row>
     <row r="569">
@@ -8446,7 +8446,7 @@
         <v>2.875364963210069</v>
       </c>
       <c r="D572" t="n">
-        <v>2.701265573501587</v>
+        <v>2.701265811920166</v>
       </c>
     </row>
     <row r="573">
@@ -8502,7 +8502,7 @@
         <v>2.66523018097481</v>
       </c>
       <c r="D576" t="n">
-        <v>2.493780136108398</v>
+        <v>2.493780374526978</v>
       </c>
     </row>
     <row r="577">
@@ -8516,7 +8516,7 @@
         <v>2.592088079017663</v>
       </c>
       <c r="D577" t="n">
-        <v>2.433123588562012</v>
+        <v>2.433123350143433</v>
       </c>
     </row>
     <row r="578">
@@ -8572,7 +8572,7 @@
         <v>2.240314034521995</v>
       </c>
       <c r="D581" t="n">
-        <v>3.102275609970093</v>
+        <v>3.102276086807251</v>
       </c>
     </row>
     <row r="582">
@@ -8628,7 +8628,7 @@
         <v>1.199280430665613</v>
       </c>
       <c r="D585" t="n">
-        <v>1.801873564720154</v>
+        <v>1.801873445510864</v>
       </c>
     </row>
     <row r="586">
@@ -8726,7 +8726,7 @@
         <v>1.190475744865191</v>
       </c>
       <c r="D592" t="n">
-        <v>1.338426470756531</v>
+        <v>1.33842658996582</v>
       </c>
     </row>
     <row r="593">
@@ -8740,7 +8740,7 @@
         <v>1.304712234120729</v>
       </c>
       <c r="D593" t="n">
-        <v>1.494650721549988</v>
+        <v>1.494650840759277</v>
       </c>
     </row>
     <row r="594">
@@ -8782,7 +8782,7 @@
         <v>1.719957498918767</v>
       </c>
       <c r="D596" t="n">
-        <v>2.085231065750122</v>
+        <v>2.085230827331543</v>
       </c>
     </row>
     <row r="597">
@@ -8866,7 +8866,7 @@
         <v>2.46772775263487</v>
       </c>
       <c r="D602" t="n">
-        <v>2.517644882202148</v>
+        <v>2.517645120620728</v>
       </c>
     </row>
     <row r="603">
@@ -8908,7 +8908,7 @@
         <v>2.519146673879276</v>
       </c>
       <c r="D605" t="n">
-        <v>2.411033153533936</v>
+        <v>2.411033391952515</v>
       </c>
     </row>
     <row r="606">
@@ -8964,7 +8964,7 @@
         <v>2.252176787885003</v>
       </c>
       <c r="D609" t="n">
-        <v>2.181225299835205</v>
+        <v>2.181225538253784</v>
       </c>
     </row>
     <row r="610">
@@ -9020,7 +9020,7 @@
         <v>1.912954058486604</v>
       </c>
       <c r="D613" t="n">
-        <v>2.836490869522095</v>
+        <v>2.836491107940674</v>
       </c>
     </row>
     <row r="614">
@@ -9034,7 +9034,7 @@
         <v>1.585064405576723</v>
       </c>
       <c r="D614" t="n">
-        <v>2.526087760925293</v>
+        <v>2.526087522506714</v>
       </c>
     </row>
     <row r="615">
@@ -9062,7 +9062,7 @@
         <v>1.054990742925014</v>
       </c>
       <c r="D616" t="n">
-        <v>1.846536159515381</v>
+        <v>1.846536040306091</v>
       </c>
     </row>
     <row r="617">
@@ -9076,7 +9076,7 @@
         <v>0.8719204546302224</v>
       </c>
       <c r="D617" t="n">
-        <v>1.538315534591675</v>
+        <v>1.538315653800964</v>
       </c>
     </row>
     <row r="618">
@@ -9104,7 +9104,7 @@
         <v>0.6694002867259587</v>
       </c>
       <c r="D619" t="n">
-        <v>1.094346165657043</v>
+        <v>1.094346404075623</v>
       </c>
     </row>
     <row r="620">
@@ -9202,7 +9202,7 @@
         <v>1.106276301558852</v>
       </c>
       <c r="D626" t="n">
-        <v>1.408968329429626</v>
+        <v>1.408968448638916</v>
       </c>
     </row>
     <row r="627">
@@ -9230,7 +9230,7 @@
         <v>1.392597522883376</v>
       </c>
       <c r="D628" t="n">
-        <v>1.807511806488037</v>
+        <v>1.807511687278748</v>
       </c>
     </row>
     <row r="629">
@@ -9314,7 +9314,7 @@
         <v>2.140367776599479</v>
       </c>
       <c r="D634" t="n">
-        <v>2.236223697662354</v>
+        <v>2.236223936080933</v>
       </c>
     </row>
     <row r="635">
@@ -9328,7 +9328,7 @@
         <v>2.190874205509659</v>
       </c>
       <c r="D635" t="n">
-        <v>2.211652994155884</v>
+        <v>2.211653232574463</v>
       </c>
     </row>
     <row r="636">
@@ -9398,7 +9398,7 @@
         <v>1.997958913806759</v>
       </c>
       <c r="D640" t="n">
-        <v>1.961971759796143</v>
+        <v>1.961971879005432</v>
       </c>
     </row>
     <row r="641">
@@ -9412,7 +9412,7 @@
         <v>1.924816811849612</v>
       </c>
       <c r="D641" t="n">
-        <v>1.900184988975525</v>
+        <v>1.900184869766235</v>
       </c>
     </row>
     <row r="642">
@@ -9426,7 +9426,7 @@
         <v>2.52737671042688</v>
       </c>
       <c r="D642" t="n">
-        <v>3.1780686378479</v>
+        <v>3.178068876266479</v>
       </c>
     </row>
     <row r="643">
@@ -9440,7 +9440,7 @@
         <v>2.298822965998724</v>
       </c>
       <c r="D643" t="n">
-        <v>3.021930932998657</v>
+        <v>3.021930694580078</v>
       </c>
     </row>
     <row r="644">
@@ -9468,7 +9468,7 @@
         <v>1.647283047432036</v>
       </c>
       <c r="D645" t="n">
-        <v>2.561508178710938</v>
+        <v>2.561507940292358</v>
       </c>
     </row>
     <row r="646">
@@ -9482,7 +9482,7 @@
         <v>1.319393394522155</v>
       </c>
       <c r="D646" t="n">
-        <v>2.255938768386841</v>
+        <v>2.25593900680542</v>
       </c>
     </row>
     <row r="647">
@@ -9496,7 +9496,7 @@
         <v>1.028788317330804</v>
       </c>
       <c r="D647" t="n">
-        <v>1.919397711753845</v>
+        <v>1.919397592544556</v>
       </c>
     </row>
     <row r="648">
@@ -9524,7 +9524,7 @@
         <v>0.606249443575654</v>
       </c>
       <c r="D649" t="n">
-        <v>1.272797107696533</v>
+        <v>1.272797226905823</v>
       </c>
     </row>
     <row r="650">
@@ -9566,7 +9566,7 @@
         <v>0.3745363146262179</v>
       </c>
       <c r="D652" t="n">
-        <v>0.7008706331253052</v>
+        <v>0.7008708715438843</v>
       </c>
     </row>
     <row r="653">
@@ -9636,7 +9636,7 @@
         <v>0.7116812470307694</v>
       </c>
       <c r="D657" t="n">
-        <v>0.9525147676467896</v>
+        <v>0.9525148868560791</v>
       </c>
     </row>
     <row r="658">
@@ -9678,7 +9678,7 @@
         <v>1.126926511828807</v>
       </c>
       <c r="D660" t="n">
-        <v>1.54403817653656</v>
+        <v>1.54403829574585</v>
       </c>
     </row>
     <row r="661">
@@ -9706,7 +9706,7 @@
         <v>1.422886375710073</v>
       </c>
       <c r="D662" t="n">
-        <v>1.835798859596252</v>
+        <v>1.835798740386963</v>
       </c>
     </row>
     <row r="663">
@@ -9734,7 +9734,7 @@
         <v>1.687799033907277</v>
       </c>
       <c r="D664" t="n">
-        <v>1.967113137245178</v>
+        <v>1.967113256454468</v>
       </c>
     </row>
     <row r="665">
@@ -9748,7 +9748,7 @@
         <v>1.793940257683891</v>
       </c>
       <c r="D665" t="n">
-        <v>1.983823657035828</v>
+        <v>1.983823895454407</v>
       </c>
     </row>
     <row r="666">
@@ -9762,7 +9762,7 @@
         <v>1.874696765544911</v>
       </c>
       <c r="D666" t="n">
-        <v>1.977422118186951</v>
+        <v>1.97742223739624</v>
       </c>
     </row>
     <row r="667">
@@ -9832,7 +9832,7 @@
         <v>1.811082092244195</v>
       </c>
       <c r="D671" t="n">
-        <v>1.769839525222778</v>
+        <v>1.769839644432068</v>
       </c>
     </row>
     <row r="672">
@@ -9846,7 +9846,7 @@
         <v>1.73228790275219</v>
       </c>
       <c r="D672" t="n">
-        <v>1.712182283401489</v>
+        <v>1.712182402610779</v>
       </c>
     </row>
     <row r="673">
@@ -9860,7 +9860,7 @@
         <v>1.659145800795044</v>
       </c>
       <c r="D673" t="n">
-        <v>1.652220368385315</v>
+        <v>1.652220487594604</v>
       </c>
     </row>
     <row r="674">
@@ -9888,7 +9888,7 @@
         <v>2.13919895140194</v>
       </c>
       <c r="D675" t="n">
-        <v>2.783170938491821</v>
+        <v>2.7831711769104</v>
       </c>
     </row>
     <row r="676">
@@ -9958,7 +9958,7 @@
         <v>0.6296957172736617</v>
       </c>
       <c r="D680" t="n">
-        <v>1.370271682739258</v>
+        <v>1.370271563529968</v>
       </c>
     </row>
     <row r="681">
@@ -10000,7 +10000,7 @@
         <v>0.2441052610746066</v>
       </c>
       <c r="D683" t="n">
-        <v>0.616899847984314</v>
+        <v>0.6168996095657349</v>
       </c>
     </row>
     <row r="684">
@@ -10070,7 +10070,7 @@
         <v>0.4378207431784478</v>
       </c>
       <c r="D688" t="n">
-        <v>0.5914285182952881</v>
+        <v>0.591428279876709</v>
       </c>
     </row>
     <row r="689">
@@ -10084,7 +10084,7 @@
         <v>0.5520572324339859</v>
       </c>
       <c r="D689" t="n">
-        <v>0.750230073928833</v>
+        <v>0.7502303123474121</v>
       </c>
     </row>
     <row r="690">
@@ -10140,7 +10140,7 @@
         <v>1.11641808458631</v>
       </c>
       <c r="D693" t="n">
-        <v>1.513739228248596</v>
+        <v>1.513739347457886</v>
       </c>
     </row>
     <row r="694">
@@ -10224,7 +10224,7 @@
         <v>1.765579179858307</v>
       </c>
       <c r="D699" t="n">
-        <v>1.767226815223694</v>
+        <v>1.767226576805115</v>
       </c>
     </row>
     <row r="700">
@@ -10266,7 +10266,7 @@
         <v>1.720119163893457</v>
       </c>
       <c r="D702" t="n">
-        <v>1.643765687942505</v>
+        <v>1.643765807151794</v>
       </c>
     </row>
     <row r="703">
@@ -10280,7 +10280,7 @@
         <v>1.651458077647412</v>
       </c>
       <c r="D703" t="n">
-        <v>1.59153139591217</v>
+        <v>1.591531276702881</v>
       </c>
     </row>
     <row r="704">
@@ -10336,7 +10336,7 @@
         <v>2.113445173984622</v>
       </c>
       <c r="D707" t="n">
-        <v>2.62555718421936</v>
+        <v>2.625557422637939</v>
       </c>
     </row>
     <row r="708">
@@ -10406,7 +10406,7 @@
         <v>0.6039419398563439</v>
       </c>
       <c r="D712" t="n">
-        <v>1.242518305778503</v>
+        <v>1.242518424987793</v>
       </c>
     </row>
     <row r="713">
@@ -10504,7 +10504,7 @@
         <v>0.3165383531704351</v>
       </c>
       <c r="D719" t="n">
-        <v>0.3594177961349487</v>
+        <v>0.3594179153442383</v>
       </c>
     </row>
     <row r="720">
@@ -10532,7 +10532,7 @@
         <v>0.5263034550166679</v>
       </c>
       <c r="D721" t="n">
-        <v>0.6322318315505981</v>
+        <v>0.6322320699691772</v>
       </c>
     </row>
     <row r="722">
@@ -10546,7 +10546,7 @@
         <v>0.655227498490182</v>
       </c>
       <c r="D722" t="n">
-        <v>0.827210545539856</v>
+        <v>0.8272106647491455</v>
       </c>
     </row>
     <row r="723">
@@ -10602,7 +10602,7 @@
         <v>1.237508583695971</v>
       </c>
       <c r="D726" t="n">
-        <v>1.52975332736969</v>
+        <v>1.5297532081604</v>
       </c>
     </row>
     <row r="727">
@@ -10616,7 +10616,7 @@
         <v>1.376712075080059</v>
       </c>
       <c r="D727" t="n">
-        <v>1.616542935371399</v>
+        <v>1.616543054580688</v>
       </c>
     </row>
     <row r="728">
@@ -10630,7 +10630,7 @@
         <v>1.502421241893175</v>
       </c>
       <c r="D728" t="n">
-        <v>1.666261553764343</v>
+        <v>1.666261315345764</v>
       </c>
     </row>
     <row r="729">
@@ -10644,7 +10644,7 @@
         <v>1.60856246566979</v>
       </c>
       <c r="D729" t="n">
-        <v>1.685938835144043</v>
+        <v>1.685938954353333</v>
       </c>
     </row>
     <row r="730">
@@ -10658,7 +10658,7 @@
         <v>1.689318973530809</v>
       </c>
       <c r="D730" t="n">
-        <v>1.682768106460571</v>
+        <v>1.682767987251282</v>
       </c>
     </row>
     <row r="731">
@@ -10672,7 +10672,7 @@
         <v>1.739825402440989</v>
       </c>
       <c r="D731" t="n">
-        <v>1.662906289100647</v>
+        <v>1.662906169891357</v>
       </c>
     </row>
     <row r="732">
@@ -10714,7 +10714,7 @@
         <v>1.694365386476139</v>
       </c>
       <c r="D734" t="n">
-        <v>1.544938087463379</v>
+        <v>1.544938206672668</v>
       </c>
     </row>
     <row r="735">
@@ -10742,7 +10742,7 @@
         <v>1.546910110738089</v>
       </c>
       <c r="D736" t="n">
-        <v>1.441553711891174</v>
+        <v>1.441553592681885</v>
       </c>
     </row>
     <row r="737">
@@ -10756,7 +10756,7 @@
         <v>1.473768008780942</v>
       </c>
       <c r="D737" t="n">
-        <v>1.386238098144531</v>
+        <v>1.386238217353821</v>
       </c>
     </row>
     <row r="738">
@@ -10812,7 +10812,7 @@
         <v>1.57063615474494</v>
       </c>
       <c r="D741" t="n">
-        <v>2.13097357749939</v>
+        <v>2.130973815917969</v>
       </c>
     </row>
     <row r="742">
@@ -10826,7 +10826,7 @@
         <v>1.24274650183506</v>
       </c>
       <c r="D742" t="n">
-        <v>1.844621062278748</v>
+        <v>1.844621181488037</v>
       </c>
     </row>
     <row r="743">
@@ -10840,7 +10840,7 @@
         <v>0.952141424643709</v>
       </c>
       <c r="D743" t="n">
-        <v>1.522878050804138</v>
+        <v>1.522877931594849</v>
       </c>
     </row>
     <row r="744">
@@ -10854,7 +10854,7 @@
         <v>0.7126728391833501</v>
       </c>
       <c r="D744" t="n">
-        <v>1.193682074546814</v>
+        <v>1.193682193756104</v>
       </c>
     </row>
     <row r="745">
@@ -10882,7 +10882,7 @@
         <v>0.4024057940331962</v>
       </c>
       <c r="D746" t="n">
-        <v>0.6345480680465698</v>
+        <v>0.6345479488372803</v>
       </c>
     </row>
     <row r="747">
@@ -10896,7 +10896,7 @@
         <v>0.327082382984295</v>
       </c>
       <c r="D747" t="n">
-        <v>0.4432914257049561</v>
+        <v>0.4432916641235352</v>
       </c>
     </row>
     <row r="748">
@@ -10924,7 +10924,7 @@
         <v>0.3085257310845315</v>
       </c>
       <c r="D749" t="n">
-        <v>0.2566019296646118</v>
+        <v>0.2566016912460327</v>
       </c>
     </row>
     <row r="750">
@@ -10994,7 +10994,7 @@
         <v>0.763958397817188</v>
       </c>
       <c r="D754" t="n">
-        <v>0.7853559255599976</v>
+        <v>0.7853556871414185</v>
       </c>
     </row>
     <row r="755">
@@ -11022,7 +11022,7 @@
         <v>1.050279619141712</v>
       </c>
       <c r="D756" t="n">
-        <v>1.193019509315491</v>
+        <v>1.19301962852478</v>
       </c>
     </row>
     <row r="757">
@@ -11050,7 +11050,7 @@
         <v>1.346239483022977</v>
       </c>
       <c r="D758" t="n">
-        <v>1.490665316581726</v>
+        <v>1.490665197372437</v>
       </c>
     </row>
     <row r="759">
@@ -11064,7 +11064,7 @@
         <v>1.485442974407064</v>
       </c>
       <c r="D759" t="n">
-        <v>1.577985167503357</v>
+        <v>1.577984929084778</v>
       </c>
     </row>
     <row r="760">
@@ -11078,7 +11078,7 @@
         <v>1.611152141220181</v>
       </c>
       <c r="D760" t="n">
-        <v>1.628320932388306</v>
+        <v>1.628321051597595</v>
       </c>
     </row>
     <row r="761">
@@ -11106,7 +11106,7 @@
         <v>1.798049872857815</v>
       </c>
       <c r="D762" t="n">
-        <v>1.646406531333923</v>
+        <v>1.646406769752502</v>
       </c>
     </row>
     <row r="763">
@@ -11134,7 +11134,7 @@
         <v>1.865775792300354</v>
       </c>
       <c r="D764" t="n">
-        <v>1.596813917160034</v>
+        <v>1.596813678741455</v>
       </c>
     </row>
     <row r="765">
@@ -11162,7 +11162,7 @@
         <v>1.803096285803145</v>
       </c>
       <c r="D766" t="n">
-        <v>1.513062715530396</v>
+        <v>1.513062834739685</v>
       </c>
     </row>
     <row r="767">
@@ -11190,7 +11190,7 @@
         <v>1.655641010065095</v>
       </c>
       <c r="D768" t="n">
-        <v>1.41251814365387</v>
+        <v>1.412517905235291</v>
       </c>
     </row>
     <row r="769">
@@ -11246,7 +11246,7 @@
         <v>2.121499841206438</v>
       </c>
       <c r="D772" t="n">
-        <v>2.357272624969482</v>
+        <v>2.357272863388062</v>
       </c>
     </row>
     <row r="773">
@@ -11260,7 +11260,7 @@
         <v>1.781782386449733</v>
       </c>
       <c r="D773" t="n">
-        <v>2.128090143203735</v>
+        <v>2.128089904785156</v>
       </c>
     </row>
     <row r="774">
@@ -11274,7 +11274,7 @@
         <v>1.453892733539852</v>
       </c>
       <c r="D774" t="n">
-        <v>1.847397804260254</v>
+        <v>1.847398042678833</v>
       </c>
     </row>
     <row r="775">
@@ -11288,7 +11288,7 @@
         <v>1.163287656348502</v>
       </c>
       <c r="D775" t="n">
-        <v>1.529948115348816</v>
+        <v>1.529947996139526</v>
       </c>
     </row>
     <row r="776">
@@ -11302,7 +11302,7 @@
         <v>0.9238190708881429</v>
       </c>
       <c r="D776" t="n">
-        <v>1.203163504600525</v>
+        <v>1.203163623809814</v>
       </c>
     </row>
     <row r="777">
@@ -11428,7 +11428,7 @@
         <v>0.8461805860484668</v>
       </c>
       <c r="D785" t="n">
-        <v>0.5995677709579468</v>
+        <v>0.5995672941207886</v>
       </c>
     </row>
     <row r="786">
@@ -11442,7 +11442,7 @@
         <v>0.9751046295219807</v>
       </c>
       <c r="D786" t="n">
-        <v>0.7964286804199219</v>
+        <v>0.7964287996292114</v>
       </c>
     </row>
     <row r="787">
@@ -11498,7 +11498,7 @@
         <v>1.55738571472777</v>
       </c>
       <c r="D790" t="n">
-        <v>1.50226628780365</v>
+        <v>1.502266407012939</v>
       </c>
     </row>
     <row r="791">
@@ -11512,7 +11512,7 @@
         <v>1.696589206111857</v>
       </c>
       <c r="D791" t="n">
-        <v>1.589522957801819</v>
+        <v>1.589523077011108</v>
       </c>
     </row>
     <row r="792">
@@ -11554,7 +11554,7 @@
         <v>2.009196104562608</v>
       </c>
       <c r="D794" t="n">
-        <v>1.658283233642578</v>
+        <v>1.658283114433289</v>
       </c>
     </row>
     <row r="795">
@@ -11568,7 +11568,7 @@
         <v>2.059702533472788</v>
       </c>
       <c r="D795" t="n">
-        <v>1.639707088470459</v>
+        <v>1.639706969261169</v>
       </c>
     </row>
     <row r="796">
@@ -11582,7 +11582,7 @@
         <v>2.076922024005146</v>
       </c>
       <c r="D796" t="n">
-        <v>1.60943877696991</v>
+        <v>1.60943865776062</v>
       </c>
     </row>
     <row r="797">
@@ -11596,7 +11596,7 @@
         <v>2.060615025807015</v>
       </c>
       <c r="D797" t="n">
-        <v>1.570985078811646</v>
+        <v>1.570985317230225</v>
       </c>
     </row>
     <row r="798">
@@ -11624,7 +11624,7 @@
         <v>1.945581431261893</v>
       </c>
       <c r="D799" t="n">
-        <v>1.478719592094421</v>
+        <v>1.478719711303711</v>
       </c>
     </row>
     <row r="800">
@@ -11638,7 +11638,7 @@
         <v>1.866787241769888</v>
       </c>
       <c r="D800" t="n">
-        <v>1.427831292152405</v>
+        <v>1.427831172943115</v>
       </c>
     </row>
     <row r="801">
@@ -11652,7 +11652,7 @@
         <v>1.793645139812741</v>
       </c>
       <c r="D801" t="n">
-        <v>1.374992489814758</v>
+        <v>1.374992609024048</v>
       </c>
     </row>
     <row r="802">
@@ -11680,7 +11680,7 @@
         <v>2.685768998120597</v>
       </c>
       <c r="D803" t="n">
-        <v>2.557618856430054</v>
+        <v>2.557618618011475</v>
       </c>
     </row>
     <row r="804">
@@ -11722,7 +11722,7 @@
         <v>1.706339426644028</v>
       </c>
       <c r="D806" t="n">
-        <v>1.88764750957489</v>
+        <v>1.88764762878418</v>
       </c>
     </row>
     <row r="807">
@@ -11750,7 +11750,7 @@
         <v>1.176265763992319</v>
       </c>
       <c r="D808" t="n">
-        <v>1.249117493629456</v>
+        <v>1.249117374420166</v>
       </c>
     </row>
     <row r="809">
@@ -11792,7 +11792,7 @@
         <v>0.7906753077932636</v>
       </c>
       <c r="D811" t="n">
-        <v>0.4959844350814819</v>
+        <v>0.4959843158721924</v>
       </c>
     </row>
     <row r="812">
@@ -11820,7 +11820,7 @@
         <v>0.7721186558935005</v>
       </c>
       <c r="D813" t="n">
-        <v>0.3067631721496582</v>
+        <v>0.3067634105682373</v>
       </c>
     </row>
     <row r="814">
@@ -11834,7 +11834,7 @@
         <v>0.816447606350565</v>
       </c>
       <c r="D814" t="n">
-        <v>0.3061407804489136</v>
+        <v>0.3061410188674927</v>
       </c>
     </row>
     <row r="815">
@@ -11862,7 +11862,7 @@
         <v>0.9843907898971047</v>
       </c>
       <c r="D816" t="n">
-        <v>0.4795452356338501</v>
+        <v>0.479544997215271</v>
       </c>
     </row>
     <row r="817">
@@ -11904,7 +11904,7 @@
         <v>1.367291354771375</v>
       </c>
       <c r="D819" t="n">
-        <v>1.049710273742676</v>
+        <v>1.049710512161255</v>
       </c>
     </row>
     <row r="820">
@@ -11946,7 +11946,7 @@
         <v>1.809832407831946</v>
       </c>
       <c r="D822" t="n">
-        <v>1.545040369033813</v>
+        <v>1.545040249824524</v>
       </c>
     </row>
     <row r="823">
@@ -11988,7 +11988,7 @@
         <v>2.180886289805765</v>
       </c>
       <c r="D825" t="n">
-        <v>1.702025771141052</v>
+        <v>1.702025890350342</v>
       </c>
     </row>
     <row r="826">
@@ -12016,7 +12016,7 @@
         <v>2.312149226576964</v>
       </c>
       <c r="D827" t="n">
-        <v>1.680997490882874</v>
+        <v>1.680997252464294</v>
       </c>
     </row>
     <row r="828">
@@ -12030,7 +12030,7 @@
         <v>2.329368717109323</v>
       </c>
       <c r="D828" t="n">
-        <v>1.650686621665955</v>
+        <v>1.650686740875244</v>
       </c>
     </row>
     <row r="829">
@@ -12044,7 +12044,7 @@
         <v>2.31306171891119</v>
       </c>
       <c r="D829" t="n">
-        <v>1.61227822303772</v>
+        <v>1.61227810382843</v>
       </c>
     </row>
     <row r="830">
@@ -12058,7 +12058,7 @@
         <v>2.266689210612114</v>
       </c>
       <c r="D830" t="n">
-        <v>1.5682612657547</v>
+        <v>1.568261384963989</v>
       </c>
     </row>
     <row r="831">
@@ -12072,7 +12072,7 @@
         <v>2.198028124366069</v>
       </c>
       <c r="D831" t="n">
-        <v>1.520370721817017</v>
+        <v>1.520370602607727</v>
       </c>
     </row>
     <row r="832">
@@ -12100,7 +12100,7 @@
         <v>2.046091832916917</v>
       </c>
       <c r="D833" t="n">
-        <v>1.417373895645142</v>
+        <v>1.417374014854431</v>
       </c>
     </row>
     <row r="834">
@@ -12156,7 +12156,7 @@
         <v>2.252376817124468</v>
       </c>
       <c r="D837" t="n">
-        <v>2.219447135925293</v>
+        <v>2.219447374343872</v>
       </c>
     </row>
     <row r="838">
@@ -12170,7 +12170,7 @@
         <v>1.924487164214588</v>
       </c>
       <c r="D838" t="n">
-        <v>1.948351263999939</v>
+        <v>1.948351144790649</v>
       </c>
     </row>
     <row r="839">
@@ -12184,7 +12184,7 @@
         <v>1.633882087023237</v>
       </c>
       <c r="D839" t="n">
-        <v>1.638022303581238</v>
+        <v>1.638022422790527</v>
       </c>
     </row>
     <row r="840">
@@ -12212,7 +12212,7 @@
         <v>1.211343213268087</v>
       </c>
       <c r="D841" t="n">
-        <v>1.010887861251831</v>
+        <v>1.01088809967041</v>
       </c>
     </row>
     <row r="842">
@@ -12296,7 +12296,7 @@
         <v>1.107009914876969</v>
       </c>
       <c r="D847" t="n">
-        <v>0.4250980615615845</v>
+        <v>0.425098180770874</v>
       </c>
     </row>
     <row r="848">
@@ -12310,7 +12310,7 @@
         <v>1.202538527467664</v>
       </c>
       <c r="D848" t="n">
-        <v>0.5401474237442017</v>
+        <v>0.5401476621627808</v>
       </c>
     </row>
     <row r="849">
@@ -12324,7 +12324,7 @@
         <v>1.316775016723202</v>
       </c>
       <c r="D849" t="n">
-        <v>0.7038149833679199</v>
+        <v>0.703815221786499</v>
       </c>
     </row>
     <row r="850">
@@ -12352,7 +12352,7 @@
         <v>1.585439092341935</v>
       </c>
       <c r="D851" t="n">
-        <v>1.110934972763062</v>
+        <v>1.110935211181641</v>
       </c>
     </row>
     <row r="852">
@@ -12366,7 +12366,7 @@
         <v>1.73202028152124</v>
       </c>
       <c r="D852" t="n">
-        <v>1.309234499931335</v>
+        <v>1.309234619140625</v>
       </c>
     </row>
     <row r="853">
@@ -12422,7 +12422,7 @@
         <v>2.292892803599709</v>
       </c>
       <c r="D856" t="n">
-        <v>1.740595579147339</v>
+        <v>1.740595698356628</v>
       </c>
     </row>
     <row r="857">
@@ -12478,7 +12478,7 @@
         <v>2.547516454679882</v>
       </c>
       <c r="D860" t="n">
-        <v>1.707852721214294</v>
+        <v>1.707852482795715</v>
       </c>
     </row>
     <row r="861">
@@ -12492,7 +12492,7 @@
         <v>2.53120945648175</v>
       </c>
       <c r="D861" t="n">
-        <v>1.66920006275177</v>
+        <v>1.66920018196106</v>
       </c>
     </row>
     <row r="862">
@@ -12590,7 +12590,7 @@
         <v>2.709133707855635</v>
       </c>
       <c r="D868" t="n">
-        <v>2.49932599067688</v>
+        <v>2.499325752258301</v>
       </c>
     </row>
     <row r="869">
@@ -12618,7 +12618,7 @@
         <v>2.041526600189048</v>
       </c>
       <c r="D870" t="n">
-        <v>2.018215656280518</v>
+        <v>2.018215417861938</v>
       </c>
     </row>
     <row r="871">
@@ -12688,7 +12688,7 @@
         <v>1.125862481338284</v>
       </c>
       <c r="D875" t="n">
-        <v>0.6295173168182373</v>
+        <v>0.6295174360275269</v>
       </c>
     </row>
     <row r="876">
@@ -12786,7 +12786,7 @@
         <v>1.562738496171177</v>
       </c>
       <c r="D882" t="n">
-        <v>0.9703723192214966</v>
+        <v>0.9703724384307861</v>
       </c>
     </row>
     <row r="883">
@@ -12828,7 +12828,7 @@
         <v>1.998175304849988</v>
       </c>
       <c r="D885" t="n">
-        <v>1.545842289924622</v>
+        <v>1.545842409133911</v>
       </c>
     </row>
     <row r="886">
@@ -12842,7 +12842,7 @@
         <v>2.145019581376967</v>
       </c>
       <c r="D886" t="n">
-        <v>1.67304539680481</v>
+        <v>1.673045635223389</v>
       </c>
     </row>
     <row r="887">
@@ -12870,7 +12870,7 @@
         <v>2.40993223957417</v>
       </c>
       <c r="D888" t="n">
-        <v>1.807589173316956</v>
+        <v>1.807589292526245</v>
       </c>
     </row>
     <row r="889">
@@ -12912,7 +12912,7 @@
         <v>2.647336400121985</v>
       </c>
       <c r="D891" t="n">
-        <v>1.804048776626587</v>
+        <v>1.804048895835876</v>
       </c>
     </row>
     <row r="892">
@@ -12926,7 +12926,7 @@
         <v>2.664555890654343</v>
       </c>
       <c r="D892" t="n">
-        <v>1.77302348613739</v>
+        <v>1.773023366928101</v>
       </c>
     </row>
     <row r="893">
@@ -12954,7 +12954,7 @@
         <v>2.601876384157134</v>
       </c>
       <c r="D894" t="n">
-        <v>1.689476251602173</v>
+        <v>1.689476370811462</v>
       </c>
     </row>
     <row r="895">
@@ -12968,7 +12968,7 @@
         <v>2.533215297911089</v>
       </c>
       <c r="D895" t="n">
-        <v>1.641198039054871</v>
+        <v>1.64119815826416</v>
       </c>
     </row>
     <row r="896">
@@ -13010,7 +13010,7 @@
         <v>3.232348920937559</v>
       </c>
       <c r="D898" t="n">
-        <v>2.835070371627808</v>
+        <v>2.835070133209229</v>
       </c>
     </row>
     <row r="899">
@@ -13038,7 +13038,7 @@
         <v>2.69197271269942</v>
       </c>
       <c r="D900" t="n">
-        <v>2.563499212265015</v>
+        <v>2.563499450683594</v>
       </c>
     </row>
     <row r="901">
@@ -13066,7 +13066,7 @@
         <v>2.024365605032834</v>
       </c>
       <c r="D902" t="n">
-        <v>2.090377569198608</v>
+        <v>2.090377807617188</v>
       </c>
     </row>
     <row r="903">
@@ -13080,7 +13080,7 @@
         <v>1.733760527841484</v>
       </c>
       <c r="D903" t="n">
-        <v>1.785970687866211</v>
+        <v>1.785970449447632</v>
       </c>
     </row>
     <row r="904">
@@ -13094,7 +13094,7 @@
         <v>1.494291942381125</v>
       </c>
       <c r="D904" t="n">
-        <v>1.465342044830322</v>
+        <v>1.465342283248901</v>
       </c>
     </row>
     <row r="905">
@@ -13108,7 +13108,7 @@
         <v>1.311221654086333</v>
       </c>
       <c r="D905" t="n">
-        <v>1.160706162452698</v>
+        <v>1.160706400871277</v>
       </c>
     </row>
     <row r="906">
@@ -13122,7 +13122,7 @@
         <v>1.184024897230971</v>
       </c>
       <c r="D906" t="n">
-        <v>0.9005345106124878</v>
+        <v>0.9005347490310669</v>
       </c>
     </row>
     <row r="907">
@@ -13276,7 +13276,7 @@
         <v>1.981014309693773</v>
       </c>
       <c r="D917" t="n">
-        <v>1.616915464401245</v>
+        <v>1.616915583610535</v>
       </c>
     </row>
     <row r="918">
@@ -13290,7 +13290,7 @@
         <v>2.127858586220752</v>
       </c>
       <c r="D918" t="n">
-        <v>1.743790626525879</v>
+        <v>1.743790745735168</v>
       </c>
     </row>
     <row r="919">
@@ -13318,7 +13318,7 @@
         <v>2.392771244417956</v>
       </c>
       <c r="D920" t="n">
-        <v>1.877574920654297</v>
+        <v>1.877574682235718</v>
       </c>
     </row>
     <row r="921">
@@ -13332,7 +13332,7 @@
         <v>2.49891246819457</v>
       </c>
       <c r="D921" t="n">
-        <v>1.896405816078186</v>
+        <v>1.896405696868896</v>
       </c>
     </row>
     <row r="922">
@@ -13346,7 +13346,7 @@
         <v>2.57966897605559</v>
       </c>
       <c r="D922" t="n">
-        <v>1.892805814743042</v>
+        <v>1.892805933952332</v>
       </c>
     </row>
     <row r="923">
@@ -13374,7 +13374,7 @@
         <v>2.647394895498128</v>
       </c>
       <c r="D924" t="n">
-        <v>1.841530561447144</v>
+        <v>1.841530680656433</v>
       </c>
     </row>
     <row r="925">
@@ -13402,7 +13402,7 @@
         <v>2.58471538900092</v>
       </c>
       <c r="D926" t="n">
-        <v>1.757257580757141</v>
+        <v>1.75725781917572</v>
       </c>
     </row>
     <row r="927">
@@ -13416,7 +13416,7 @@
         <v>2.516054302754875</v>
       </c>
       <c r="D927" t="n">
-        <v>1.708632946014404</v>
+        <v>1.708632826805115</v>
       </c>
     </row>
     <row r="928">
@@ -13430,7 +13430,7 @@
         <v>2.43726011326287</v>
       </c>
       <c r="D928" t="n">
-        <v>1.657486319541931</v>
+        <v>1.65748655796051</v>
       </c>
     </row>
     <row r="929">
@@ -13486,7 +13486,7 @@
         <v>2.557309635624551</v>
       </c>
       <c r="D932" t="n">
-        <v>2.626599550247192</v>
+        <v>2.626599788665771</v>
       </c>
     </row>
     <row r="933">
@@ -13542,7 +13542,7 @@
         <v>1.359628865306256</v>
       </c>
       <c r="D936" t="n">
-        <v>1.539740681648254</v>
+        <v>1.539740562438965</v>
       </c>
     </row>
     <row r="937">
@@ -13556,7 +13556,7 @@
         <v>1.176558577011464</v>
       </c>
       <c r="D937" t="n">
-        <v>1.234609246253967</v>
+        <v>1.234609365463257</v>
       </c>
     </row>
     <row r="938">
@@ -13570,7 +13570,7 @@
         <v>1.049361820156102</v>
       </c>
       <c r="D938" t="n">
-        <v>0.9728370904922485</v>
+        <v>0.9728368520736694</v>
       </c>
     </row>
     <row r="939">
@@ -13738,7 +13738,7 @@
         <v>1.993195509145883</v>
       </c>
       <c r="D950" t="n">
-        <v>1.813929200172424</v>
+        <v>1.813929319381714</v>
       </c>
     </row>
     <row r="951">
@@ -13752,7 +13752,7 @@
         <v>2.13239900052997</v>
       </c>
       <c r="D951" t="n">
-        <v>1.899102330207825</v>
+        <v>1.899102210998535</v>
       </c>
     </row>
     <row r="952">
@@ -13794,7 +13794,7 @@
         <v>2.445005898980721</v>
       </c>
       <c r="D954" t="n">
-        <v>1.962353825569153</v>
+        <v>1.962353706359863</v>
       </c>
     </row>
     <row r="955">
@@ -13808,7 +13808,7 @@
         <v>2.495512327890901</v>
       </c>
       <c r="D955" t="n">
-        <v>1.942278861999512</v>
+        <v>1.942278742790222</v>
       </c>
     </row>
     <row r="956">
@@ -13836,7 +13836,7 @@
         <v>2.496424820225128</v>
       </c>
       <c r="D957" t="n">
-        <v>1.871018052101135</v>
+        <v>1.871017813682556</v>
       </c>
     </row>
     <row r="958">
@@ -13864,7 +13864,7 @@
         <v>2.381391225680006</v>
       </c>
       <c r="D959" t="n">
-        <v>1.776916861534119</v>
+        <v>1.776916980743408</v>
       </c>
     </row>
     <row r="960">
@@ -13892,7 +13892,7 @@
         <v>2.229454934230854</v>
       </c>
       <c r="D961" t="n">
-        <v>1.672309041023254</v>
+        <v>1.672308802604675</v>
       </c>
     </row>
     <row r="962">
@@ -14004,7 +14004,7 @@
         <v>0.98826399923555</v>
       </c>
       <c r="D969" t="n">
-        <v>1.30462658405304</v>
+        <v>1.304626703262329</v>
       </c>
     </row>
     <row r="970">
@@ -14074,7 +14074,7 @@
         <v>0.8115161298885878</v>
       </c>
       <c r="D974" t="n">
-        <v>0.6346074342727661</v>
+        <v>0.6346076726913452</v>
       </c>
     </row>
     <row r="975">
@@ -14088,7 +14088,7 @@
         <v>0.8839307008444326</v>
       </c>
       <c r="D975" t="n">
-        <v>0.6939862966537476</v>
+        <v>0.6939860582351685</v>
       </c>
     </row>
     <row r="976">
@@ -14116,7 +14116,7 @@
         <v>1.093695802690666</v>
       </c>
       <c r="D977" t="n">
-        <v>0.9771740436553955</v>
+        <v>0.9771738052368164</v>
       </c>
     </row>
     <row r="978">
@@ -14172,7 +14172,7 @@
         <v>1.65805665484299</v>
       </c>
       <c r="D981" t="n">
-        <v>1.754524111747742</v>
+        <v>1.754523992538452</v>
       </c>
     </row>
     <row r="982">
@@ -14228,7 +14228,7 @@
         <v>2.175954813343787</v>
       </c>
       <c r="D985" t="n">
-        <v>2.034123659133911</v>
+        <v>2.03412389755249</v>
       </c>
     </row>
     <row r="986">
@@ -14298,7 +14298,7 @@
         <v>2.261757734150137</v>
       </c>
       <c r="D990" t="n">
-        <v>1.893806576728821</v>
+        <v>1.89380669593811</v>
       </c>
     </row>
     <row r="991">
@@ -14326,7 +14326,7 @@
         <v>2.114302458412086</v>
       </c>
       <c r="D992" t="n">
-        <v>1.792993187904358</v>
+        <v>1.792993307113647</v>
       </c>
     </row>
     <row r="993">
@@ -14340,7 +14340,7 @@
         <v>2.04116035645494</v>
       </c>
       <c r="D993" t="n">
-        <v>1.739582419395447</v>
+        <v>1.739582300186157</v>
       </c>
     </row>
     <row r="994">
@@ -14368,7 +14368,7 @@
         <v>2.525237116956554</v>
       </c>
       <c r="D995" t="n">
-        <v>2.890348196029663</v>
+        <v>2.890347957611084</v>
       </c>
     </row>
     <row r="996">
@@ -14396,7 +14396,7 @@
         <v>1.873697198389866</v>
       </c>
       <c r="D997" t="n">
-        <v>2.542674779891968</v>
+        <v>2.542675018310547</v>
       </c>
     </row>
     <row r="998">
@@ -14410,7 +14410,7 @@
         <v>1.545807545479985</v>
       </c>
       <c r="D998" t="n">
-        <v>2.290032863616943</v>
+        <v>2.290032625198364</v>
       </c>
     </row>
     <row r="999">
@@ -14452,7 +14452,7 @@
         <v>0.8326635945334839</v>
       </c>
       <c r="D1001" t="n">
-        <v>1.369871735572815</v>
+        <v>1.369871854782104</v>
       </c>
     </row>
     <row r="1002">
@@ -14494,7 +14494,7 @@
         <v>0.6009504655840479</v>
       </c>
       <c r="D1004" t="n">
-        <v>0.7639534473419189</v>
+        <v>0.7639533281326294</v>
       </c>
     </row>
     <row r="1005">
@@ -14634,7 +14634,7 @@
         <v>1.649300526667903</v>
       </c>
       <c r="D1014" t="n">
-        <v>1.945399045944214</v>
+        <v>1.945398926734924</v>
       </c>
     </row>
     <row r="1015">
@@ -14676,7 +14676,7 @@
         <v>2.020354408641721</v>
       </c>
       <c r="D1017" t="n">
-        <v>2.099277973175049</v>
+        <v>2.099278211593628</v>
       </c>
     </row>
     <row r="1018">
@@ -14690,7 +14690,7 @@
         <v>2.101110916502741</v>
       </c>
       <c r="D1018" t="n">
-        <v>2.095993280410767</v>
+        <v>2.095993041992188</v>
       </c>
     </row>
     <row r="1019">
@@ -14746,7 +14746,7 @@
         <v>2.106157329448071</v>
       </c>
       <c r="D1022" t="n">
-        <v>1.960235238075256</v>
+        <v>1.960235357284546</v>
       </c>
     </row>
     <row r="1023">
@@ -14760,7 +14760,7 @@
         <v>2.037496243202025</v>
       </c>
       <c r="D1023" t="n">
-        <v>1.911132574081421</v>
+        <v>1.91113269329071</v>
       </c>
     </row>
     <row r="1024">
